--- a/biology/Histoire de la zoologie et de la botanique/Gwendoline_Joyce_Lewis/Gwendoline_Joyce_Lewis.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gwendoline_Joyce_Lewis/Gwendoline_Joyce_Lewis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gwendoline Joyce Lewis (1909-1967) est une botaniste sud-africaine.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est diplômée de l'Université du Cap, avec un doctorat[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est diplômée de l'Université du Cap, avec un doctorat.
 Elle s'est impliquée dans la description et la classification des espèces de la famille des Iridaceae.
-Elle est botaniste à l'Herbier Bolus de l'Université du Cap[2]. Elle est décédée dans la ville du Cap, le 11 avril 1967[3].
+Elle est botaniste à l'Herbier Bolus de l'Université du Cap. Elle est décédée dans la ville du Cap, le 11 avril 1967.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gwendoline J. Lewis, pour. Obermeyer AA, Barnard TT. 1972. Gladiolus: To Revision of the South African Species. Ed. C. du Cap: Purnell. 316 pp. illustrations en couleurs par Gwendoline Joyce Lewis  (ISBN 0-360-00155-6).
 Gwendoline J. Lewis. 1954. Some Aspects of the Morphology, Phylogeny and Taxonomy of the South African Iridaceae. Volume 40, tome 2 des Annales. Edition réimpr. des Ann. of the South African Museum, 99 pp.
